--- a/Class Help Data Sheet.xlsx
+++ b/Class Help Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Limitless\A - Skeletal Tracking\Tracking Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3690DDF3-0CB5-44DA-8B33-3E2B0422FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BB867-5E3D-4085-9AAC-3D6E237C7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="240" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
+    <workbookView xWindow="1215" yWindow="195" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>head</t>
   </si>
@@ -101,6 +101,66 @@
   </si>
   <si>
     <t>SELF</t>
+  </si>
+  <si>
+    <t>data_head</t>
+  </si>
+  <si>
+    <t>data_neck</t>
+  </si>
+  <si>
+    <t>data_torso</t>
+  </si>
+  <si>
+    <t>data_waist</t>
+  </si>
+  <si>
+    <t>data_left_collar</t>
+  </si>
+  <si>
+    <t>data_left_shoulder</t>
+  </si>
+  <si>
+    <t>data_left_elbow</t>
+  </si>
+  <si>
+    <t>data_left_wrist</t>
+  </si>
+  <si>
+    <t>data_left_hand</t>
+  </si>
+  <si>
+    <t>data_right_collar</t>
+  </si>
+  <si>
+    <t>data_right_shoulder</t>
+  </si>
+  <si>
+    <t>data_right_elbow</t>
+  </si>
+  <si>
+    <t>data_right_wrist</t>
+  </si>
+  <si>
+    <t>data_right_hand</t>
+  </si>
+  <si>
+    <t>data_left_hip</t>
+  </si>
+  <si>
+    <t>data_left_knee</t>
+  </si>
+  <si>
+    <t>data_left_ankle</t>
+  </si>
+  <si>
+    <t>data_right_hip</t>
+  </si>
+  <si>
+    <t>data_right_knee</t>
+  </si>
+  <si>
+    <t>data_right_ankle</t>
   </si>
 </sst>
 </file>
@@ -117,12 +177,6 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
       <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -132,6 +186,12 @@
       <color rgb="FF24292F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,17 +235,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,18 +561,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE272D-76AB-4EEC-90F8-63A24006BB45}">
-  <dimension ref="E3:O28"/>
+  <dimension ref="E1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="58.5703125" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" customWidth="1"/>
+    <col min="12" max="12" width="47.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="5:15">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="5:15">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
     <row r="3" spans="5:15">
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -526,232 +623,1073 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="5:15">
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="5:15">
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+    <row r="4" spans="5:15" ht="15.75" thickBot="1"/>
+    <row r="5" spans="5:15" ht="15.75" thickBot="1">
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="5:15">
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="5:15" ht="15.75" thickBot="1"/>
-    <row r="8" spans="5:15" ht="15.75" thickBot="1">
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E6" s="3" t="str">
+        <f>"self."&amp;F6</f>
+        <v>self.head</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f>"data_"&amp;F6</f>
+        <v>data_head</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"skeleton."&amp;F6&amp;".projection"</f>
+        <v>skeleton.head.projection</v>
+      </c>
+      <c r="J6" t="str">
+        <f>"pd.DataFrame("&amp;I6&amp;")"</f>
+        <v>pd.DataFrame(skeleton.head.projection)</v>
+      </c>
+      <c r="K6" t="str">
+        <f>H6&amp;"="&amp;J6</f>
+        <v>data_head=pd.DataFrame(skeleton.head.projection)</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f>H6&amp;"=pd.DataFrame(data_zeroes)"</f>
+        <v>data_head=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M6" t="str">
+        <f>"global "&amp;H6</f>
+        <v>global data_head</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15">
+      <c r="E7" s="3" t="str">
+        <f t="shared" ref="E7:E25" si="0">"self."&amp;F7</f>
+        <v>self.neck</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H25" si="1">"data_"&amp;F7</f>
+        <v>data_neck</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I25" si="2">"skeleton."&amp;F7&amp;".projection"</f>
+        <v>skeleton.neck.projection</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J25" si="3">"pd.DataFrame("&amp;I7&amp;")"</f>
+        <v>pd.DataFrame(skeleton.neck.projection)</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K25" si="4">H7&amp;"="&amp;J7</f>
+        <v>data_neck=pd.DataFrame(skeleton.neck.projection)</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" ref="L7:L25" si="5">H7&amp;"=pd.DataFrame(data_zeroes)"</f>
+        <v>data_neck=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ref="M7:M25" si="6">"global "&amp;H7</f>
+        <v>global data_neck</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.torso</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>data_torso</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.torso.projection</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.torso.projection)</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>data_torso=pd.DataFrame(skeleton.torso.projection)</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_torso=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_torso</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.waist</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>data_waist</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.waist.projection</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.waist.projection)</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>data_waist=pd.DataFrame(skeleton.waist.projection)</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_waist=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_waist</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_collar</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_collar</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_collar.projection</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_collar.projection)</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_collar=pd.DataFrame(skeleton.left_collar.projection)</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_collar=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_collar</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_shoulder</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_shoulder</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_shoulder.projection</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_shoulder.projection)</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_shoulder=pd.DataFrame(skeleton.left_shoulder.projection)</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_shoulder=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_shoulder</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_elbow</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_elbow</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_elbow.projection</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_elbow.projection)</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_elbow=pd.DataFrame(skeleton.left_elbow.projection)</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_elbow=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_elbow</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_wrist</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_wrist</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_wrist.projection</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_wrist.projection)</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_wrist=pd.DataFrame(skeleton.left_wrist.projection)</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_wrist=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_wrist</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_hand</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_hand</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_hand.projection</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_hand.projection)</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_hand=pd.DataFrame(skeleton.left_hand.projection)</v>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_hand=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_hand</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_collar</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_collar</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_collar.projection</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_collar.projection)</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_collar=pd.DataFrame(skeleton.right_collar.projection)</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_collar=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_collar</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_shoulder</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_shoulder</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_shoulder.projection</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_shoulder.projection)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_shoulder=pd.DataFrame(skeleton.right_shoulder.projection)</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_shoulder=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_shoulder</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_elbow</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_elbow</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_elbow.projection</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_elbow.projection)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_elbow=pd.DataFrame(skeleton.right_elbow.projection)</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_elbow=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_elbow</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_wrist</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_wrist</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_wrist.projection</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_wrist.projection)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_wrist=pd.DataFrame(skeleton.right_wrist.projection)</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_wrist=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_wrist</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_hand</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_hand</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_hand.projection</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_hand.projection)</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_hand=pd.DataFrame(skeleton.right_hand.projection)</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_hand=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_hand</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_hip</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_hip</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_hip.projection</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_hip.projection)</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_hip=pd.DataFrame(skeleton.left_hip.projection)</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_hip=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_hip</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_knee</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_knee</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_knee.projection</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_knee.projection)</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_knee=pd.DataFrame(skeleton.left_knee.projection)</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_knee=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_knee</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.left_ankle</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>data_left_ankle</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.left_ankle.projection</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.left_ankle.projection)</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>data_left_ankle=pd.DataFrame(skeleton.left_ankle.projection)</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_left_ankle=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_left_ankle</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_hip</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_hip</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_hip.projection</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_hip.projection)</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_hip=pd.DataFrame(skeleton.right_hip.projection)</v>
+      </c>
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_hip=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_hip</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_knee</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_knee</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_knee.projection</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_knee.projection)</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_knee=pd.DataFrame(skeleton.right_knee.projection)</v>
+      </c>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_knee=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_knee</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>self.right_ankle</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>data_right_ankle</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>skeleton.right_ankle.projection</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>pd.DataFrame(skeleton.right_ankle.projection)</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>data_right_ankle=pd.DataFrame(skeleton.right_ankle.projection)</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>data_right_ankle=pd.DataFrame(data_zeroes)</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>global data_right_ankle</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="str">
+        <f>H28&amp;"_df = {START: [0, 0, 0]}"</f>
+        <v>data_head_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J28" t="str">
+        <f>H28&amp;"_df = data_write_program("&amp;H28&amp;"_df, "&amp;H28&amp;")"</f>
+        <v>data_head_df = data_write_program(data_head_df, data_head)</v>
+      </c>
+      <c r="L28" t="str">
+        <f>H28&amp;"_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)"</f>
+        <v>data_head_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" ref="I29:I47" si="7">H29&amp;"_df = {START: [0, 0, 0]}"</f>
+        <v>data_neck_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ref="J29:J47" si="8">H29&amp;"_df = data_write_program("&amp;H29&amp;"_df, "&amp;H29&amp;")"</f>
+        <v>data_neck_df = data_write_program(data_neck_df, data_neck)</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" ref="L29:L47" si="9">H29&amp;"_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)"</f>
+        <v>data_neck_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="7"/>
+        <v>data_torso_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="8"/>
+        <v>data_torso_df = data_write_program(data_torso_df, data_torso)</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="9"/>
+        <v>data_torso_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="7"/>
+        <v>data_waist_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="8"/>
+        <v>data_waist_df = data_write_program(data_waist_df, data_waist)</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="9"/>
+        <v>data_waist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_collar_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_collar_df = data_write_program(data_left_collar_df, data_left_collar)</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_collar_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_shoulder_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_shoulder_df = data_write_program(data_left_shoulder_df, data_left_shoulder)</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_shoulder_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12">
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_elbow_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_elbow_df = data_write_program(data_left_elbow_df, data_left_elbow)</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_elbow_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12">
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_wrist_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_wrist_df = data_write_program(data_left_wrist_df, data_left_wrist)</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_wrist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12">
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_hand_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_hand_df = data_write_program(data_left_hand_df, data_left_hand)</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_hand_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_collar_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_collar_df = data_write_program(data_right_collar_df, data_right_collar)</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_collar_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12">
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_shoulder_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_shoulder_df = data_write_program(data_right_shoulder_df, data_right_shoulder)</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_shoulder_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12">
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_elbow_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_elbow_df = data_write_program(data_right_elbow_df, data_right_elbow)</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_elbow_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12">
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_wrist_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_wrist_df = data_write_program(data_right_wrist_df, data_right_wrist)</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_wrist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_hand_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_hand_df = data_write_program(data_right_hand_df, data_right_hand)</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_hand_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12">
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_hip_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_hip_df = data_write_program(data_left_hip_df, data_left_hip)</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_hip_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12">
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_knee_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_knee_df = data_write_program(data_left_knee_df, data_left_knee)</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_knee_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12">
+      <c r="G44">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="7"/>
+        <v>data_left_ankle_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="8"/>
+        <v>data_left_ankle_df = data_write_program(data_left_ankle_df, data_left_ankle)</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="9"/>
+        <v>data_left_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12">
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_hip_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_hip_df = data_write_program(data_right_hip_df, data_right_hip)</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_hip_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12">
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_knee_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_knee_df = data_write_program(data_right_knee_df, data_right_knee)</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_knee_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12">
+      <c r="G47">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" s="4" t="str">
-        <f>"self."&amp;F9</f>
-        <v>self.head</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" s="4" t="str">
-        <f t="shared" ref="E10:E28" si="0">"self."&amp;F10</f>
-        <v>self.neck</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.torso</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.waist</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_collar</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_shoulder</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_elbow</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_wrist</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_hand</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_collar</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_shoulder</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_elbow</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_wrist</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_hand</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_hip</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_knee</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.left_ankle</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_hip</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_knee</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.right_ankle</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>19</v>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="7"/>
+        <v>data_right_ankle_df = {START: [0, 0, 0]}</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="8"/>
+        <v>data_right_ankle_df = data_write_program(data_right_ankle_df, data_right_ankle)</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="9"/>
+        <v>data_right_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
   </sheetData>

--- a/Class Help Data Sheet.xlsx
+++ b/Class Help Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Limitless\A - Skeletal Tracking\Tracking Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BB867-5E3D-4085-9AAC-3D6E237C7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812CA3A-9A41-4431-A3FA-51B03EC98080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="195" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
+    <workbookView xWindow="1905" yWindow="510" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE272D-76AB-4EEC-90F8-63A24006BB45}">
-  <dimension ref="E1:O47"/>
+  <dimension ref="E1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,14 +577,14 @@
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="58.5703125" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" customWidth="1"/>
-    <col min="12" max="12" width="47.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="9" max="10" width="35.85546875" customWidth="1"/>
+    <col min="11" max="11" width="58.5703125" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15">
+    <row r="1" spans="5:16">
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -596,8 +596,9 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="5:15">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="5:16">
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -609,8 +610,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="5:15">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="5:16">
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -622,9 +624,10 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="5:15" ht="15.75" thickBot="1"/>
-    <row r="5" spans="5:15" ht="15.75" thickBot="1">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="5:16" ht="15.75" thickBot="1"/>
+    <row r="5" spans="5:16" ht="15.75" thickBot="1">
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
@@ -632,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="5:15">
+    <row r="6" spans="5:16">
       <c r="E6" s="3" t="str">
         <f>"self."&amp;F6</f>
         <v>self.head</v>
@@ -648,24 +651,24 @@
         <f>"skeleton."&amp;F6&amp;".projection"</f>
         <v>skeleton.head.projection</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>"pd.DataFrame("&amp;I6&amp;")"</f>
         <v>pd.DataFrame(skeleton.head.projection)</v>
       </c>
-      <c r="K6" t="str">
-        <f>H6&amp;"="&amp;J6</f>
+      <c r="L6" t="str">
+        <f>H6&amp;"="&amp;K6</f>
         <v>data_head=pd.DataFrame(skeleton.head.projection)</v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="M6" s="6" t="str">
         <f>H6&amp;"=pd.DataFrame(data_zeroes)"</f>
         <v>data_head=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>"global "&amp;H6</f>
         <v>global data_head</v>
       </c>
     </row>
-    <row r="7" spans="5:15">
+    <row r="7" spans="5:16">
       <c r="E7" s="3" t="str">
         <f t="shared" ref="E7:E25" si="0">"self."&amp;F7</f>
         <v>self.neck</v>
@@ -681,24 +684,24 @@
         <f t="shared" ref="I7:I25" si="2">"skeleton."&amp;F7&amp;".projection"</f>
         <v>skeleton.neck.projection</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J25" si="3">"pd.DataFrame("&amp;I7&amp;")"</f>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K25" si="3">"pd.DataFrame("&amp;I7&amp;")"</f>
         <v>pd.DataFrame(skeleton.neck.projection)</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:K25" si="4">H7&amp;"="&amp;J7</f>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L25" si="4">H7&amp;"="&amp;K7</f>
         <v>data_neck=pd.DataFrame(skeleton.neck.projection)</v>
       </c>
-      <c r="L7" s="6" t="str">
-        <f t="shared" ref="L7:L25" si="5">H7&amp;"=pd.DataFrame(data_zeroes)"</f>
+      <c r="M7" s="6" t="str">
+        <f t="shared" ref="M7:M25" si="5">H7&amp;"=pd.DataFrame(data_zeroes)"</f>
         <v>data_neck=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" ref="M7:M25" si="6">"global "&amp;H7</f>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:N25" si="6">"global "&amp;H7</f>
         <v>global data_neck</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="5:16">
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.torso</v>
@@ -714,24 +717,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.torso.projection</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.torso.projection)</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="4"/>
         <v>data_torso=pd.DataFrame(skeleton.torso.projection)</v>
       </c>
-      <c r="L8" s="6" t="str">
+      <c r="M8" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_torso=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="6"/>
         <v>global data_torso</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="5:16">
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.waist</v>
@@ -747,24 +750,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.waist.projection</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.waist.projection)</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="4"/>
         <v>data_waist=pd.DataFrame(skeleton.waist.projection)</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_waist=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="6"/>
         <v>global data_waist</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="5:16">
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_collar</v>
@@ -780,24 +783,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_collar.projection</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_collar.projection)</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="4"/>
         <v>data_left_collar=pd.DataFrame(skeleton.left_collar.projection)</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="M10" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_collar=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_collar</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="5:16">
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_shoulder</v>
@@ -813,24 +816,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_shoulder.projection</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_shoulder.projection)</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="4"/>
         <v>data_left_shoulder=pd.DataFrame(skeleton.left_shoulder.projection)</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="M11" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_shoulder=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_shoulder</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="5:16">
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_elbow</v>
@@ -846,24 +849,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_elbow.projection</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_elbow.projection)</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="4"/>
         <v>data_left_elbow=pd.DataFrame(skeleton.left_elbow.projection)</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="M12" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_elbow=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_elbow</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="5:16">
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_wrist</v>
@@ -879,24 +882,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_wrist.projection</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_wrist.projection)</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="4"/>
         <v>data_left_wrist=pd.DataFrame(skeleton.left_wrist.projection)</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="M13" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_wrist=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_wrist</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="5:16">
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_hand</v>
@@ -912,24 +915,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_hand.projection</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_hand.projection)</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="4"/>
         <v>data_left_hand=pd.DataFrame(skeleton.left_hand.projection)</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="M14" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_hand=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_hand</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="5:16">
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_collar</v>
@@ -945,24 +948,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_collar.projection</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_collar.projection)</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="4"/>
         <v>data_right_collar=pd.DataFrame(skeleton.right_collar.projection)</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="M15" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_collar=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_collar</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="5:16">
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_shoulder</v>
@@ -978,24 +981,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_shoulder.projection</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_shoulder.projection)</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="4"/>
         <v>data_right_shoulder=pd.DataFrame(skeleton.right_shoulder.projection)</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="M16" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_shoulder=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_shoulder</v>
       </c>
     </row>
-    <row r="17" spans="5:13">
+    <row r="17" spans="5:14">
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_elbow</v>
@@ -1011,24 +1014,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_elbow.projection</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_elbow.projection)</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="4"/>
         <v>data_right_elbow=pd.DataFrame(skeleton.right_elbow.projection)</v>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="M17" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_elbow=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_elbow</v>
       </c>
     </row>
-    <row r="18" spans="5:13">
+    <row r="18" spans="5:14">
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_wrist</v>
@@ -1044,24 +1047,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_wrist.projection</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_wrist.projection)</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="4"/>
         <v>data_right_wrist=pd.DataFrame(skeleton.right_wrist.projection)</v>
       </c>
-      <c r="L18" s="6" t="str">
+      <c r="M18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_wrist=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_wrist</v>
       </c>
     </row>
-    <row r="19" spans="5:13">
+    <row r="19" spans="5:14">
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_hand</v>
@@ -1077,24 +1080,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_hand.projection</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_hand.projection)</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="4"/>
         <v>data_right_hand=pd.DataFrame(skeleton.right_hand.projection)</v>
       </c>
-      <c r="L19" s="6" t="str">
+      <c r="M19" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_hand=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_hand</v>
       </c>
     </row>
-    <row r="20" spans="5:13">
+    <row r="20" spans="5:14">
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_hip</v>
@@ -1110,24 +1113,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_hip.projection</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_hip.projection)</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="4"/>
         <v>data_left_hip=pd.DataFrame(skeleton.left_hip.projection)</v>
       </c>
-      <c r="L20" s="6" t="str">
+      <c r="M20" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_hip=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_hip</v>
       </c>
     </row>
-    <row r="21" spans="5:13">
+    <row r="21" spans="5:14">
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_knee</v>
@@ -1143,24 +1146,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_knee.projection</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_knee.projection)</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="4"/>
         <v>data_left_knee=pd.DataFrame(skeleton.left_knee.projection)</v>
       </c>
-      <c r="L21" s="6" t="str">
+      <c r="M21" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_knee=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_knee</v>
       </c>
     </row>
-    <row r="22" spans="5:13">
+    <row r="22" spans="5:14">
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.left_ankle</v>
@@ -1176,24 +1179,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.left_ankle.projection</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.left_ankle.projection)</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="4"/>
         <v>data_left_ankle=pd.DataFrame(skeleton.left_ankle.projection)</v>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="M22" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_left_ankle=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="6"/>
         <v>global data_left_ankle</v>
       </c>
     </row>
-    <row r="23" spans="5:13">
+    <row r="23" spans="5:14">
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_hip</v>
@@ -1209,24 +1212,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_hip.projection</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_hip.projection)</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="4"/>
         <v>data_right_hip=pd.DataFrame(skeleton.right_hip.projection)</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="M23" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_hip=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_hip</v>
       </c>
     </row>
-    <row r="24" spans="5:13">
+    <row r="24" spans="5:14">
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_knee</v>
@@ -1242,24 +1245,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_knee.projection</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_knee.projection)</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="4"/>
         <v>data_right_knee=pd.DataFrame(skeleton.right_knee.projection)</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="M24" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_knee=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_knee</v>
       </c>
     </row>
-    <row r="25" spans="5:13">
+    <row r="25" spans="5:14">
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>self.right_ankle</v>
@@ -1275,24 +1278,24 @@
         <f t="shared" si="2"/>
         <v>skeleton.right_ankle.projection</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="3"/>
         <v>pd.DataFrame(skeleton.right_ankle.projection)</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="4"/>
         <v>data_right_ankle=pd.DataFrame(skeleton.right_ankle.projection)</v>
       </c>
-      <c r="L25" s="6" t="str">
+      <c r="M25" s="6" t="str">
         <f t="shared" si="5"/>
         <v>data_right_ankle=pd.DataFrame(data_zeroes)</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="6"/>
         <v>global data_right_ankle</v>
       </c>
     </row>
-    <row r="28" spans="5:13">
+    <row r="28" spans="5:14">
       <c r="G28">
         <v>1</v>
       </c>
@@ -1304,15 +1307,19 @@
         <v>data_head_df = {START: [0, 0, 0]}</v>
       </c>
       <c r="J28" t="str">
+        <f>"'"&amp;H28&amp;"_df' : {}, "</f>
+        <v xml:space="preserve">'data_head_df' : {}, </v>
+      </c>
+      <c r="K28" t="str">
         <f>H28&amp;"_df = data_write_program("&amp;H28&amp;"_df, "&amp;H28&amp;")"</f>
         <v>data_head_df = data_write_program(data_head_df, data_head)</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>H28&amp;"_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)"</f>
         <v>data_head_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="29" spans="5:13">
+    <row r="29" spans="5:14">
       <c r="G29">
         <v>2</v>
       </c>
@@ -1324,15 +1331,19 @@
         <v>data_neck_df = {START: [0, 0, 0]}</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29:J47" si="8">H29&amp;"_df = data_write_program("&amp;H29&amp;"_df, "&amp;H29&amp;")"</f>
+        <f t="shared" ref="J29:J47" si="8">"'"&amp;H29&amp;"_df' : {}, "</f>
+        <v xml:space="preserve">'data_neck_df' : {}, </v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" ref="K29:K47" si="9">H29&amp;"_df = data_write_program("&amp;H29&amp;"_df, "&amp;H29&amp;")"</f>
         <v>data_neck_df = data_write_program(data_neck_df, data_neck)</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" ref="L29:L47" si="9">H29&amp;"_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)"</f>
+      <c r="M29" t="str">
+        <f t="shared" ref="M29:M47" si="10">H29&amp;"_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)"</f>
         <v>data_neck_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="30" spans="5:13">
+    <row r="30" spans="5:14">
       <c r="G30">
         <v>3</v>
       </c>
@@ -1345,14 +1356,18 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_torso_df' : {}, </v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
         <v>data_torso_df = data_write_program(data_torso_df, data_torso)</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="9"/>
+      <c r="M30" t="str">
+        <f t="shared" si="10"/>
         <v>data_torso_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="31" spans="5:13">
+    <row r="31" spans="5:14">
       <c r="G31">
         <v>4</v>
       </c>
@@ -1365,14 +1380,18 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_waist_df' : {}, </v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
         <v>data_waist_df = data_write_program(data_waist_df, data_waist)</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="9"/>
+      <c r="M31" t="str">
+        <f t="shared" si="10"/>
         <v>data_waist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="32" spans="5:13">
+    <row r="32" spans="5:14">
       <c r="G32">
         <v>5</v>
       </c>
@@ -1385,14 +1404,18 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_collar_df' : {}, </v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_collar_df = data_write_program(data_left_collar_df, data_left_collar)</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="9"/>
+      <c r="M32" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_collar_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="33" spans="7:12">
+    <row r="33" spans="7:13">
       <c r="G33">
         <v>6</v>
       </c>
@@ -1405,14 +1428,18 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_shoulder_df' : {}, </v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_shoulder_df = data_write_program(data_left_shoulder_df, data_left_shoulder)</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="9"/>
+      <c r="M33" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_shoulder_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="34" spans="7:12">
+    <row r="34" spans="7:13">
       <c r="G34">
         <v>7</v>
       </c>
@@ -1425,14 +1452,18 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_elbow_df' : {}, </v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_elbow_df = data_write_program(data_left_elbow_df, data_left_elbow)</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="9"/>
+      <c r="M34" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_elbow_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="35" spans="7:12">
+    <row r="35" spans="7:13">
       <c r="G35">
         <v>8</v>
       </c>
@@ -1445,14 +1476,18 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_wrist_df' : {}, </v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_wrist_df = data_write_program(data_left_wrist_df, data_left_wrist)</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="9"/>
+      <c r="M35" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_wrist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="36" spans="7:12">
+    <row r="36" spans="7:13">
       <c r="G36">
         <v>9</v>
       </c>
@@ -1465,14 +1500,18 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_hand_df' : {}, </v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_hand_df = data_write_program(data_left_hand_df, data_left_hand)</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="9"/>
+      <c r="M36" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_hand_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="37" spans="7:12">
+    <row r="37" spans="7:13">
       <c r="G37">
         <v>10</v>
       </c>
@@ -1480,19 +1519,23 @@
         <v>31</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="7"/>
+        <f>H37&amp;"_df = {START: [0, 0, 0]}"</f>
         <v>data_right_collar_df = {START: [0, 0, 0]}</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_collar_df' : {}, </v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_collar_df = data_write_program(data_right_collar_df, data_right_collar)</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="9"/>
+      <c r="M37" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_collar_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="38" spans="7:12">
+    <row r="38" spans="7:13">
       <c r="G38">
         <v>11</v>
       </c>
@@ -1505,14 +1548,18 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_shoulder_df' : {}, </v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_shoulder_df = data_write_program(data_right_shoulder_df, data_right_shoulder)</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="9"/>
+      <c r="M38" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_shoulder_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="39" spans="7:12">
+    <row r="39" spans="7:13">
       <c r="G39">
         <v>12</v>
       </c>
@@ -1525,14 +1572,18 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_elbow_df' : {}, </v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_elbow_df = data_write_program(data_right_elbow_df, data_right_elbow)</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="9"/>
+      <c r="M39" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_elbow_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="40" spans="7:12">
+    <row r="40" spans="7:13">
       <c r="G40">
         <v>13</v>
       </c>
@@ -1545,14 +1596,18 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_wrist_df' : {}, </v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_wrist_df = data_write_program(data_right_wrist_df, data_right_wrist)</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="9"/>
+      <c r="M40" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_wrist_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="41" spans="7:12">
+    <row r="41" spans="7:13">
       <c r="G41">
         <v>14</v>
       </c>
@@ -1565,14 +1620,18 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_hand_df' : {}, </v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_hand_df = data_write_program(data_right_hand_df, data_right_hand)</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="9"/>
+      <c r="M41" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_hand_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="42" spans="7:12">
+    <row r="42" spans="7:13">
       <c r="G42">
         <v>15</v>
       </c>
@@ -1585,14 +1644,18 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_hip_df' : {}, </v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_hip_df = data_write_program(data_left_hip_df, data_left_hip)</v>
       </c>
-      <c r="L42" t="str">
-        <f t="shared" si="9"/>
+      <c r="M42" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_hip_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="43" spans="7:12">
+    <row r="43" spans="7:13">
       <c r="G43">
         <v>16</v>
       </c>
@@ -1605,14 +1668,18 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_knee_df' : {}, </v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_knee_df = data_write_program(data_left_knee_df, data_left_knee)</v>
       </c>
-      <c r="L43" t="str">
-        <f t="shared" si="9"/>
+      <c r="M43" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_knee_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="44" spans="7:12">
+    <row r="44" spans="7:13">
       <c r="G44">
         <v>17</v>
       </c>
@@ -1625,14 +1692,18 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_left_ankle_df' : {}, </v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
         <v>data_left_ankle_df = data_write_program(data_left_ankle_df, data_left_ankle)</v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="9"/>
+      <c r="M44" t="str">
+        <f t="shared" si="10"/>
         <v>data_left_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="45" spans="7:12">
+    <row r="45" spans="7:13">
       <c r="G45">
         <v>18</v>
       </c>
@@ -1645,14 +1716,18 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_hip_df' : {}, </v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_hip_df = data_write_program(data_right_hip_df, data_right_hip)</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="9"/>
+      <c r="M45" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_hip_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="46" spans="7:12">
+    <row r="46" spans="7:13">
       <c r="G46">
         <v>19</v>
       </c>
@@ -1665,14 +1740,18 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_knee_df' : {}, </v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_knee_df = data_write_program(data_right_knee_df, data_right_knee)</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="9"/>
+      <c r="M46" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_knee_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="47" spans="7:12">
+    <row r="47" spans="7:13">
       <c r="G47">
         <v>20</v>
       </c>
@@ -1685,10 +1764,14 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">'data_right_ankle_df' : {}, </v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
         <v>data_right_ankle_df = data_write_program(data_right_ankle_df, data_right_ankle)</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="9"/>
+      <c r="M47" t="str">
+        <f t="shared" si="10"/>
         <v>data_right_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>

--- a/Class Help Data Sheet.xlsx
+++ b/Class Help Data Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Limitless\A - Skeletal Tracking\Tracking Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812CA3A-9A41-4431-A3FA-51B03EC98080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF93EA-1892-4E8A-B733-5D7370B226BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="510" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -245,6 +250,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE272D-76AB-4EEC-90F8-63A24006BB45}">
-  <dimension ref="E1:P47"/>
+  <dimension ref="E1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1775,6 +1783,286 @@
         <v>data_right_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
+    <row r="51" spans="10:12">
+      <c r="J51" t="str">
+        <f>"'"&amp;F6&amp;"_df' : {}, "</f>
+        <v xml:space="preserve">'head_df' : {}, </v>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f>F6&amp;"_data = record_data['"&amp;F6&amp;"_df']"</f>
+        <v>head_data = record_data['head_df']</v>
+      </c>
+      <c r="L51" t="str">
+        <f>F6&amp;"_data_live = live_data['data_"&amp;F6&amp;"']"</f>
+        <v>head_data_live = live_data['data_head']</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12">
+      <c r="J52" t="str">
+        <f t="shared" ref="J52:J70" si="11">"'"&amp;F7&amp;"_df' : {}, "</f>
+        <v xml:space="preserve">'neck_df' : {}, </v>
+      </c>
+      <c r="K52" s="7" t="str">
+        <f t="shared" ref="K52:K70" si="12">F7&amp;"_data = record_data['"&amp;F7&amp;"_df']"</f>
+        <v>neck_data = record_data['neck_df']</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" ref="L52:L70" si="13">F7&amp;"_data_live = live_data['data_"&amp;F7&amp;"']"</f>
+        <v>neck_data_live = live_data['data_neck']</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'torso_df' : {}, </v>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>torso_data = record_data['torso_df']</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="13"/>
+        <v>torso_data_live = live_data['data_torso']</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12">
+      <c r="J54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'waist_df' : {}, </v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>waist_data = record_data['waist_df']</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="13"/>
+        <v>waist_data_live = live_data['data_waist']</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12">
+      <c r="J55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_collar_df' : {}, </v>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_collar_data = record_data['left_collar_df']</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="13"/>
+        <v>left_collar_data_live = live_data['data_left_collar']</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12">
+      <c r="J56" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_shoulder_df' : {}, </v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_shoulder_data = record_data['left_shoulder_df']</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="13"/>
+        <v>left_shoulder_data_live = live_data['data_left_shoulder']</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12">
+      <c r="J57" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_elbow_df' : {}, </v>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_elbow_data = record_data['left_elbow_df']</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="13"/>
+        <v>left_elbow_data_live = live_data['data_left_elbow']</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12">
+      <c r="J58" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_wrist_df' : {}, </v>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_wrist_data = record_data['left_wrist_df']</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="13"/>
+        <v>left_wrist_data_live = live_data['data_left_wrist']</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12">
+      <c r="J59" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_hand_df' : {}, </v>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_hand_data = record_data['left_hand_df']</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="13"/>
+        <v>left_hand_data_live = live_data['data_left_hand']</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12">
+      <c r="J60" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_collar_df' : {}, </v>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_collar_data = record_data['right_collar_df']</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="13"/>
+        <v>right_collar_data_live = live_data['data_right_collar']</v>
+      </c>
+    </row>
+    <row r="61" spans="10:12">
+      <c r="J61" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_shoulder_df' : {}, </v>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_shoulder_data = record_data['right_shoulder_df']</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="13"/>
+        <v>right_shoulder_data_live = live_data['data_right_shoulder']</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12">
+      <c r="J62" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_elbow_df' : {}, </v>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_elbow_data = record_data['right_elbow_df']</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="13"/>
+        <v>right_elbow_data_live = live_data['data_right_elbow']</v>
+      </c>
+    </row>
+    <row r="63" spans="10:12">
+      <c r="J63" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_wrist_df' : {}, </v>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_wrist_data = record_data['right_wrist_df']</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="13"/>
+        <v>right_wrist_data_live = live_data['data_right_wrist']</v>
+      </c>
+    </row>
+    <row r="64" spans="10:12">
+      <c r="J64" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_hand_df' : {}, </v>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_hand_data = record_data['right_hand_df']</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="13"/>
+        <v>right_hand_data_live = live_data['data_right_hand']</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="J65" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_hip_df' : {}, </v>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_hip_data = record_data['left_hip_df']</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="13"/>
+        <v>left_hip_data_live = live_data['data_left_hip']</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="J66" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_knee_df' : {}, </v>
+      </c>
+      <c r="K66" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_knee_data = record_data['left_knee_df']</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="13"/>
+        <v>left_knee_data_live = live_data['data_left_knee']</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'left_ankle_df' : {}, </v>
+      </c>
+      <c r="K67" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>left_ankle_data = record_data['left_ankle_df']</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="13"/>
+        <v>left_ankle_data_live = live_data['data_left_ankle']</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="J68" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_hip_df' : {}, </v>
+      </c>
+      <c r="K68" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_hip_data = record_data['right_hip_df']</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="13"/>
+        <v>right_hip_data_live = live_data['data_right_hip']</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="J69" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_knee_df' : {}, </v>
+      </c>
+      <c r="K69" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_knee_data = record_data['right_knee_df']</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="13"/>
+        <v>right_knee_data_live = live_data['data_right_knee']</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">'right_ankle_df' : {}, </v>
+      </c>
+      <c r="K70" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>right_ankle_data = record_data['right_ankle_df']</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="13"/>
+        <v>right_ankle_data_live = live_data['data_right_ankle']</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Class Help Data Sheet.xlsx
+++ b/Class Help Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Limitless\A - Skeletal Tracking\Tracking Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF93EA-1892-4E8A-B733-5D7370B226BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D80AA-3EF6-4EFC-8609-536EB17F06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="510" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
+    <workbookView xWindow="1635" yWindow="420" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <dimension ref="E1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51:L70"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1793,8 +1793,8 @@
         <v>head_data = record_data['head_df']</v>
       </c>
       <c r="L51" t="str">
-        <f>F6&amp;"_data_live = live_data['data_"&amp;F6&amp;"']"</f>
-        <v>head_data_live = live_data['data_head']</v>
+        <f>F6&amp;"_data_live = var_joints_live_data['data_"&amp;F6&amp;"']"</f>
+        <v>head_data_live = var_joints_live_data['data_head']</v>
       </c>
     </row>
     <row r="52" spans="10:12">
@@ -1807,8 +1807,8 @@
         <v>neck_data = record_data['neck_df']</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" ref="L52:L70" si="13">F7&amp;"_data_live = live_data['data_"&amp;F7&amp;"']"</f>
-        <v>neck_data_live = live_data['data_neck']</v>
+        <f t="shared" ref="L52:L70" si="13">F7&amp;"_data_live = var_joints_live_data['data_"&amp;F7&amp;"']"</f>
+        <v>neck_data_live = var_joints_live_data['data_neck']</v>
       </c>
     </row>
     <row r="53" spans="10:12">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" si="13"/>
-        <v>torso_data_live = live_data['data_torso']</v>
+        <v>torso_data_live = var_joints_live_data['data_torso']</v>
       </c>
     </row>
     <row r="54" spans="10:12">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" si="13"/>
-        <v>waist_data_live = live_data['data_waist']</v>
+        <v>waist_data_live = var_joints_live_data['data_waist']</v>
       </c>
     </row>
     <row r="55" spans="10:12">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" si="13"/>
-        <v>left_collar_data_live = live_data['data_left_collar']</v>
+        <v>left_collar_data_live = var_joints_live_data['data_left_collar']</v>
       </c>
     </row>
     <row r="56" spans="10:12">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" si="13"/>
-        <v>left_shoulder_data_live = live_data['data_left_shoulder']</v>
+        <v>left_shoulder_data_live = var_joints_live_data['data_left_shoulder']</v>
       </c>
     </row>
     <row r="57" spans="10:12">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" si="13"/>
-        <v>left_elbow_data_live = live_data['data_left_elbow']</v>
+        <v>left_elbow_data_live = var_joints_live_data['data_left_elbow']</v>
       </c>
     </row>
     <row r="58" spans="10:12">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" si="13"/>
-        <v>left_wrist_data_live = live_data['data_left_wrist']</v>
+        <v>left_wrist_data_live = var_joints_live_data['data_left_wrist']</v>
       </c>
     </row>
     <row r="59" spans="10:12">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" si="13"/>
-        <v>left_hand_data_live = live_data['data_left_hand']</v>
+        <v>left_hand_data_live = var_joints_live_data['data_left_hand']</v>
       </c>
     </row>
     <row r="60" spans="10:12">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" si="13"/>
-        <v>right_collar_data_live = live_data['data_right_collar']</v>
+        <v>right_collar_data_live = var_joints_live_data['data_right_collar']</v>
       </c>
     </row>
     <row r="61" spans="10:12">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" si="13"/>
-        <v>right_shoulder_data_live = live_data['data_right_shoulder']</v>
+        <v>right_shoulder_data_live = var_joints_live_data['data_right_shoulder']</v>
       </c>
     </row>
     <row r="62" spans="10:12">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" si="13"/>
-        <v>right_elbow_data_live = live_data['data_right_elbow']</v>
+        <v>right_elbow_data_live = var_joints_live_data['data_right_elbow']</v>
       </c>
     </row>
     <row r="63" spans="10:12">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" si="13"/>
-        <v>right_wrist_data_live = live_data['data_right_wrist']</v>
+        <v>right_wrist_data_live = var_joints_live_data['data_right_wrist']</v>
       </c>
     </row>
     <row r="64" spans="10:12">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" si="13"/>
-        <v>right_hand_data_live = live_data['data_right_hand']</v>
+        <v>right_hand_data_live = var_joints_live_data['data_right_hand']</v>
       </c>
     </row>
     <row r="65" spans="10:12">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" si="13"/>
-        <v>left_hip_data_live = live_data['data_left_hip']</v>
+        <v>left_hip_data_live = var_joints_live_data['data_left_hip']</v>
       </c>
     </row>
     <row r="66" spans="10:12">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" si="13"/>
-        <v>left_knee_data_live = live_data['data_left_knee']</v>
+        <v>left_knee_data_live = var_joints_live_data['data_left_knee']</v>
       </c>
     </row>
     <row r="67" spans="10:12">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" si="13"/>
-        <v>left_ankle_data_live = live_data['data_left_ankle']</v>
+        <v>left_ankle_data_live = var_joints_live_data['data_left_ankle']</v>
       </c>
     </row>
     <row r="68" spans="10:12">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" si="13"/>
-        <v>right_hip_data_live = live_data['data_right_hip']</v>
+        <v>right_hip_data_live = var_joints_live_data['data_right_hip']</v>
       </c>
     </row>
     <row r="69" spans="10:12">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" si="13"/>
-        <v>right_knee_data_live = live_data['data_right_knee']</v>
+        <v>right_knee_data_live = var_joints_live_data['data_right_knee']</v>
       </c>
     </row>
     <row r="70" spans="10:12">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" si="13"/>
-        <v>right_ankle_data_live = live_data['data_right_ankle']</v>
+        <v>right_ankle_data_live = var_joints_live_data['data_right_ankle']</v>
       </c>
     </row>
   </sheetData>

--- a/Class Help Data Sheet.xlsx
+++ b/Class Help Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Limitless\A - Skeletal Tracking\Tracking Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D80AA-3EF6-4EFC-8609-536EB17F06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF4C63-F0D4-48A1-9F1B-41CEB3BCC39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="420" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
+    <workbookView xWindow="825" yWindow="885" windowWidth="25635" windowHeight="14580" xr2:uid="{7F12A6FC-2F12-447B-BB5A-8DF5DE148D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>head</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>data_right_ankle</t>
+  </si>
+  <si>
+    <t>RECORDED DATA</t>
+  </si>
+  <si>
+    <t>LIVE DATA</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE272D-76AB-4EEC-90F8-63A24006BB45}">
-  <dimension ref="E1:P70"/>
+  <dimension ref="E1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,8 +590,9 @@
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="10" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="118.140625" customWidth="1"/>
+    <col min="9" max="9" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" customWidth="1"/>
     <col min="11" max="11" width="58.5703125" customWidth="1"/>
     <col min="12" max="12" width="51.7109375" customWidth="1"/>
     <col min="13" max="13" width="47.85546875" customWidth="1"/>
@@ -1783,7 +1790,13 @@
         <v>data_right_ankle_df.to_excel('{}_Data.xlsx'.format(joints_description[0]), sheet_name='Sheet1', index=False)</v>
       </c>
     </row>
-    <row r="51" spans="10:12">
+    <row r="51" spans="8:12">
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
       <c r="J51" t="str">
         <f>"'"&amp;F6&amp;"_df' : {}, "</f>
         <v xml:space="preserve">'head_df' : {}, </v>
@@ -1797,7 +1810,7 @@
         <v>head_data_live = var_joints_live_data['data_head']</v>
       </c>
     </row>
-    <row r="52" spans="10:12">
+    <row r="52" spans="8:12">
       <c r="J52" t="str">
         <f t="shared" ref="J52:J70" si="11">"'"&amp;F7&amp;"_df' : {}, "</f>
         <v xml:space="preserve">'neck_df' : {}, </v>
@@ -1811,7 +1824,15 @@
         <v>neck_data_live = var_joints_live_data['data_neck']</v>
       </c>
     </row>
-    <row r="53" spans="10:12">
+    <row r="53" spans="8:12">
+      <c r="H53" t="str">
+        <f>"data_recorded_"&amp;F6&amp;" = pd.DataFrame(var_joints_recorded_data['"&amp;F6&amp;"_df'])"</f>
+        <v>data_recorded_head = pd.DataFrame(var_joints_recorded_data['head_df'])</v>
+      </c>
+      <c r="I53" t="str">
+        <f>"data_live_"&amp;F6&amp;" = np.array(var_joints_live_data.get('"&amp;F6&amp;"'))"</f>
+        <v>data_live_head = np.array(var_joints_live_data.get('head'))</v>
+      </c>
       <c r="J53" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'torso_df' : {}, </v>
@@ -1825,7 +1846,15 @@
         <v>torso_data_live = var_joints_live_data['data_torso']</v>
       </c>
     </row>
-    <row r="54" spans="10:12">
+    <row r="54" spans="8:12">
+      <c r="H54" t="str">
+        <f t="shared" ref="H54:H73" si="14">"data_recorded_"&amp;F7&amp;" = pd.DataFrame(var_joints_recorded_data['"&amp;F7&amp;"_df'])"</f>
+        <v>data_recorded_neck = pd.DataFrame(var_joints_recorded_data['neck_df'])</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" ref="I54:I72" si="15">"data_live_"&amp;F7&amp;" = np.array(var_joints_live_data.get('"&amp;F7&amp;"'))"</f>
+        <v>data_live_neck = np.array(var_joints_live_data.get('neck'))</v>
+      </c>
       <c r="J54" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'waist_df' : {}, </v>
@@ -1839,7 +1868,15 @@
         <v>waist_data_live = var_joints_live_data['data_waist']</v>
       </c>
     </row>
-    <row r="55" spans="10:12">
+    <row r="55" spans="8:12">
+      <c r="H55" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_torso = pd.DataFrame(var_joints_recorded_data['torso_df'])</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_torso = np.array(var_joints_live_data.get('torso'))</v>
+      </c>
       <c r="J55" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_collar_df' : {}, </v>
@@ -1853,7 +1890,15 @@
         <v>left_collar_data_live = var_joints_live_data['data_left_collar']</v>
       </c>
     </row>
-    <row r="56" spans="10:12">
+    <row r="56" spans="8:12">
+      <c r="H56" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_waist = pd.DataFrame(var_joints_recorded_data['waist_df'])</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_waist = np.array(var_joints_live_data.get('waist'))</v>
+      </c>
       <c r="J56" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_shoulder_df' : {}, </v>
@@ -1867,7 +1912,15 @@
         <v>left_shoulder_data_live = var_joints_live_data['data_left_shoulder']</v>
       </c>
     </row>
-    <row r="57" spans="10:12">
+    <row r="57" spans="8:12">
+      <c r="H57" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_collar = pd.DataFrame(var_joints_recorded_data['left_collar_df'])</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_collar = np.array(var_joints_live_data.get('left_collar'))</v>
+      </c>
       <c r="J57" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_elbow_df' : {}, </v>
@@ -1881,7 +1934,15 @@
         <v>left_elbow_data_live = var_joints_live_data['data_left_elbow']</v>
       </c>
     </row>
-    <row r="58" spans="10:12">
+    <row r="58" spans="8:12">
+      <c r="H58" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_shoulder = pd.DataFrame(var_joints_recorded_data['left_shoulder_df'])</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_shoulder = np.array(var_joints_live_data.get('left_shoulder'))</v>
+      </c>
       <c r="J58" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_wrist_df' : {}, </v>
@@ -1895,7 +1956,15 @@
         <v>left_wrist_data_live = var_joints_live_data['data_left_wrist']</v>
       </c>
     </row>
-    <row r="59" spans="10:12">
+    <row r="59" spans="8:12">
+      <c r="H59" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_elbow = pd.DataFrame(var_joints_recorded_data['left_elbow_df'])</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_elbow = np.array(var_joints_live_data.get('left_elbow'))</v>
+      </c>
       <c r="J59" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_hand_df' : {}, </v>
@@ -1909,7 +1978,15 @@
         <v>left_hand_data_live = var_joints_live_data['data_left_hand']</v>
       </c>
     </row>
-    <row r="60" spans="10:12">
+    <row r="60" spans="8:12">
+      <c r="H60" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_wrist = pd.DataFrame(var_joints_recorded_data['left_wrist_df'])</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_wrist = np.array(var_joints_live_data.get('left_wrist'))</v>
+      </c>
       <c r="J60" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_collar_df' : {}, </v>
@@ -1923,7 +2000,15 @@
         <v>right_collar_data_live = var_joints_live_data['data_right_collar']</v>
       </c>
     </row>
-    <row r="61" spans="10:12">
+    <row r="61" spans="8:12">
+      <c r="H61" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_hand = pd.DataFrame(var_joints_recorded_data['left_hand_df'])</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_hand = np.array(var_joints_live_data.get('left_hand'))</v>
+      </c>
       <c r="J61" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_shoulder_df' : {}, </v>
@@ -1937,7 +2022,15 @@
         <v>right_shoulder_data_live = var_joints_live_data['data_right_shoulder']</v>
       </c>
     </row>
-    <row r="62" spans="10:12">
+    <row r="62" spans="8:12">
+      <c r="H62" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_collar = pd.DataFrame(var_joints_recorded_data['right_collar_df'])</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_collar = np.array(var_joints_live_data.get('right_collar'))</v>
+      </c>
       <c r="J62" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_elbow_df' : {}, </v>
@@ -1951,7 +2044,15 @@
         <v>right_elbow_data_live = var_joints_live_data['data_right_elbow']</v>
       </c>
     </row>
-    <row r="63" spans="10:12">
+    <row r="63" spans="8:12">
+      <c r="H63" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_shoulder = pd.DataFrame(var_joints_recorded_data['right_shoulder_df'])</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_shoulder = np.array(var_joints_live_data.get('right_shoulder'))</v>
+      </c>
       <c r="J63" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_wrist_df' : {}, </v>
@@ -1965,7 +2066,15 @@
         <v>right_wrist_data_live = var_joints_live_data['data_right_wrist']</v>
       </c>
     </row>
-    <row r="64" spans="10:12">
+    <row r="64" spans="8:12">
+      <c r="H64" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_elbow = pd.DataFrame(var_joints_recorded_data['right_elbow_df'])</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_elbow = np.array(var_joints_live_data.get('right_elbow'))</v>
+      </c>
       <c r="J64" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_hand_df' : {}, </v>
@@ -1979,7 +2088,15 @@
         <v>right_hand_data_live = var_joints_live_data['data_right_hand']</v>
       </c>
     </row>
-    <row r="65" spans="10:12">
+    <row r="65" spans="8:12">
+      <c r="H65" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_wrist = pd.DataFrame(var_joints_recorded_data['right_wrist_df'])</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_wrist = np.array(var_joints_live_data.get('right_wrist'))</v>
+      </c>
       <c r="J65" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_hip_df' : {}, </v>
@@ -1993,7 +2110,15 @@
         <v>left_hip_data_live = var_joints_live_data['data_left_hip']</v>
       </c>
     </row>
-    <row r="66" spans="10:12">
+    <row r="66" spans="8:12">
+      <c r="H66" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_hand = pd.DataFrame(var_joints_recorded_data['right_hand_df'])</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_hand = np.array(var_joints_live_data.get('right_hand'))</v>
+      </c>
       <c r="J66" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_knee_df' : {}, </v>
@@ -2007,7 +2132,15 @@
         <v>left_knee_data_live = var_joints_live_data['data_left_knee']</v>
       </c>
     </row>
-    <row r="67" spans="10:12">
+    <row r="67" spans="8:12">
+      <c r="H67" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_hip = pd.DataFrame(var_joints_recorded_data['left_hip_df'])</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_hip = np.array(var_joints_live_data.get('left_hip'))</v>
+      </c>
       <c r="J67" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'left_ankle_df' : {}, </v>
@@ -2021,7 +2154,15 @@
         <v>left_ankle_data_live = var_joints_live_data['data_left_ankle']</v>
       </c>
     </row>
-    <row r="68" spans="10:12">
+    <row r="68" spans="8:12">
+      <c r="H68" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_knee = pd.DataFrame(var_joints_recorded_data['left_knee_df'])</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_knee = np.array(var_joints_live_data.get('left_knee'))</v>
+      </c>
       <c r="J68" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_hip_df' : {}, </v>
@@ -2035,7 +2176,15 @@
         <v>right_hip_data_live = var_joints_live_data['data_right_hip']</v>
       </c>
     </row>
-    <row r="69" spans="10:12">
+    <row r="69" spans="8:12">
+      <c r="H69" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_left_ankle = pd.DataFrame(var_joints_recorded_data['left_ankle_df'])</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_left_ankle = np.array(var_joints_live_data.get('left_ankle'))</v>
+      </c>
       <c r="J69" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_knee_df' : {}, </v>
@@ -2049,7 +2198,15 @@
         <v>right_knee_data_live = var_joints_live_data['data_right_knee']</v>
       </c>
     </row>
-    <row r="70" spans="10:12">
+    <row r="70" spans="8:12">
+      <c r="H70" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_hip = pd.DataFrame(var_joints_recorded_data['right_hip_df'])</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_hip = np.array(var_joints_live_data.get('right_hip'))</v>
+      </c>
       <c r="J70" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">'right_ankle_df' : {}, </v>
@@ -2061,6 +2218,146 @@
       <c r="L70" t="str">
         <f t="shared" si="13"/>
         <v>right_ankle_data_live = var_joints_live_data['data_right_ankle']</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12">
+      <c r="H71" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_knee = pd.DataFrame(var_joints_recorded_data['right_knee_df'])</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_knee = np.array(var_joints_live_data.get('right_knee'))</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12">
+      <c r="H72" t="str">
+        <f t="shared" si="14"/>
+        <v>data_recorded_right_ankle = pd.DataFrame(var_joints_recorded_data['right_ankle_df'])</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="15"/>
+        <v>data_live_right_ankle = np.array(var_joints_live_data.get('right_ankle'))</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12">
+      <c r="H75" t="str">
+        <f>"deviation_check_loop(img_color, counter, data_recorded_"&amp;F6&amp;", data_live_"&amp;F6&amp;")"</f>
+        <v>deviation_check_loop(img_color, counter, data_recorded_head, data_live_head)</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12">
+      <c r="H76" t="str">
+        <f t="shared" ref="H76:H96" si="16">"deviation_check_loop(img_color, counter, data_recorded_"&amp;F7&amp;", data_live_"&amp;F7&amp;")"</f>
+        <v>deviation_check_loop(img_color, counter, data_recorded_neck, data_live_neck)</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12">
+      <c r="H77" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_torso, data_live_torso)</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12">
+      <c r="H78" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_waist, data_live_waist)</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12">
+      <c r="H79" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_collar, data_live_left_collar)</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12">
+      <c r="H80" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_shoulder, data_live_left_shoulder)</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_elbow, data_live_left_elbow)</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_wrist, data_live_left_wrist)</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_hand, data_live_left_hand)</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_collar, data_live_right_collar)</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_shoulder, data_live_right_shoulder)</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_elbow, data_live_right_elbow)</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_wrist, data_live_right_wrist)</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_hand, data_live_right_hand)</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_hip, data_live_left_hip)</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_knee, data_live_left_knee)</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_left_ankle, data_live_left_ankle)</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_hip, data_live_right_hip)</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_knee, data_live_right_knee)</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" t="str">
+        <f t="shared" si="16"/>
+        <v>deviation_check_loop(img_color, counter, data_recorded_right_ankle, data_live_right_ankle)</v>
       </c>
     </row>
   </sheetData>
